--- a/homeworks/CF_HW_2_2020_Ans.xlsx
+++ b/homeworks/CF_HW_2_2020_Ans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10927"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/CorpFin 20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142441CD-28BD-9B49-9A4D-C22F921C059F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C08A00-1308-D841-AC25-F5BE7C159428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="680" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21740" yWindow="3160" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 2 Ans" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>&lt;---Change to 4%</t>
   </si>
   <si>
-    <t>$1,500 * 35 = $52,500.  Let compounding work for you, so that you don't have to.</t>
-  </si>
-  <si>
     <t>Notice that by contributing at the beginning of each year, the annual payments drop by roughly  $1,500</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
       </rPr>
       <t>the EAR.  To convert to EAR, use @Effect</t>
     </r>
+  </si>
+  <si>
+    <t>$1,500 * 35 = $52,500.  That's a lot of shoes.  Let compounding work for you, so that you don't have to.</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,6 +1275,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1593,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1628,7 @@
     <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="190"/>
       <c r="C4" s="191" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="192"/>
     </row>
@@ -1795,7 +1796,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="183" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="6"/>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="183" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="6"/>
@@ -1970,7 +1971,7 @@
         <v>0.06</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="72"/>
       <c r="F37" s="73"/>
@@ -2211,7 +2212,7 @@
         <v>-40731.967104781681</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="5"/>
@@ -2226,7 +2227,7 @@
         <v>-26921.576938989787</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="5"/>
@@ -2244,7 +2245,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="100">
         <v>0.06</v>
@@ -2256,7 +2257,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="100">
         <v>0.04</v>
@@ -2317,7 +2318,7 @@
         <v>-39165.352985367004</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
@@ -2332,7 +2333,7 @@
         <v>-25397.714093386589</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
@@ -2352,13 +2353,13 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="174">
         <v>0.06</v>
       </c>
       <c r="D70" s="176" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -2366,13 +2367,13 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="174">
         <v>0.04</v>
       </c>
-      <c r="D71" s="176" t="s">
-        <v>62</v>
+      <c r="D71" s="215" t="s">
+        <v>81</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="5"/>
@@ -2602,7 +2603,7 @@
     <row r="95" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="207" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="177"/>
@@ -2710,7 +2711,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B105" s="208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="145"/>
       <c r="D105" s="14"/>
@@ -2732,14 +2733,14 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B107" s="209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C107" s="206">
         <f>C106*12</f>
         <v>1.3222677731057394E-2</v>
       </c>
       <c r="D107" s="198" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="15"/>
@@ -2747,14 +2748,14 @@
     </row>
     <row r="108" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="210" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" s="211">
         <f>EFFECT(C107,12)</f>
         <v>1.3303107430121974E-2</v>
       </c>
       <c r="D108" s="212" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E108" s="181"/>
       <c r="F108" s="182"/>
@@ -4165,7 +4166,7 @@
         <v>0.04</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4706,7 +4707,7 @@
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="164" t="s">
         <v>57</v>
@@ -4746,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>2</v>
